--- a/medicine/Psychotrope/Brasserie_De_Ryck/Brasserie_De_Ryck.xlsx
+++ b/medicine/Psychotrope/Brasserie_De_Ryck/Brasserie_De_Ryck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie De Ryck (en néerlandais : Brouwerij De Ryck) est une brasserie familiale belge située à Herzele en province de Flandre-Orientale. Elle produit principalement les bières Arend et Special De Ryck. 
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1886, Gustaaf De Ryck achète une ferme en face du vieux château et de l’église d’Herzele pour un prix de 5000 francs belges. Il la transforme en une brasserie baptisée De Gouden Arend (en français : L'Aigle d'Or)[1]. Il se perfectionne dans son nouveau métier de brasseur en se rendant à Brème en Allemagne. La Première Guerre mondiale stoppe les activités brassicoles. En 1920, la brasserie rouvre et s'appelle désormais la brasserie De Ryck. À l'occasion de cette réouverture, la brasserie crée la Special De Ryck, une bière ambrée brassée avec les 4 ingrédients de base que sont le houblon, le malt, la levure et l'eau. Au décès de Gustaaf De Ryck en 1938, son fils Clément ainsi que ses deux filles poursuivent l'activité brassicole. En 1965, les cousins Gustaaf Jr et Paul De Ryck succèdent à leurs parents. Aujourd'hui, c'est An De Ryck qui dirige l'entreprise qui n'a jamais déménagé. Elle est l'arrière-petite-fille du fondateur Gustaaf, représente la quatrième génération de brasseurs De Ryck et est une des rares femmes brasseurs de Belgique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1886, Gustaaf De Ryck achète une ferme en face du vieux château et de l’église d’Herzele pour un prix de 5000 francs belges. Il la transforme en une brasserie baptisée De Gouden Arend (en français : L'Aigle d'Or). Il se perfectionne dans son nouveau métier de brasseur en se rendant à Brème en Allemagne. La Première Guerre mondiale stoppe les activités brassicoles. En 1920, la brasserie rouvre et s'appelle désormais la brasserie De Ryck. À l'occasion de cette réouverture, la brasserie crée la Special De Ryck, une bière ambrée brassée avec les 4 ingrédients de base que sont le houblon, le malt, la levure et l'eau. Au décès de Gustaaf De Ryck en 1938, son fils Clément ainsi que ses deux filles poursuivent l'activité brassicole. En 1965, les cousins Gustaaf Jr et Paul De Ryck succèdent à leurs parents. Aujourd'hui, c'est An De Ryck qui dirige l'entreprise qui n'a jamais déménagé. Elle est l'arrière-petite-fille du fondateur Gustaaf, représente la quatrième génération de brasseurs De Ryck et est une des rares femmes brasseurs de Belgique.
 La brasserie fait partie de l'association brassicole Belgian Family Brewers.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Special De Ryck, une bière ambrée de fermentation haute titrant 5,5 % en volume d'alcool.
 Arend Blond, une bière blonde de fermentation haute titrant 6,5 % en volume d'alcool.
